--- a/Review Destinasi Wisata Trenggalek/excel/Review_Waterpark Bukit Jaas Permai.xlsx
+++ b/Review Destinasi Wisata Trenggalek/excel/Review_Waterpark Bukit Jaas Permai.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haris\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haris\OneDrive\Documents\TB Datamine (Datasets)\Review Destinasi Wisata Trenggalek\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44132553-A455-4BAA-A4A0-804EF5065FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A574213-321A-4718-BDE1-8A01BC551962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>author_title</t>
-  </si>
-  <si>
     <t>review_text</t>
   </si>
   <si>
@@ -38,111 +35,6 @@
   </si>
   <si>
     <t>Waterpark Jaas Permai</t>
-  </si>
-  <si>
-    <t>Naomi Aldebaran (Naomi)</t>
-  </si>
-  <si>
-    <t>gubuGSudra entertainment</t>
-  </si>
-  <si>
-    <t>X BALL</t>
-  </si>
-  <si>
-    <t>Kherenhapukh Sitanggang</t>
-  </si>
-  <si>
-    <t>Nabila Hasna Amira</t>
-  </si>
-  <si>
-    <t>Iskan. Azizi</t>
-  </si>
-  <si>
-    <t>Ratih Pradnya</t>
-  </si>
-  <si>
-    <t>Martha Diciello</t>
-  </si>
-  <si>
-    <t>Sendy Putra</t>
-  </si>
-  <si>
-    <t>Tamami Ikhwan</t>
-  </si>
-  <si>
-    <t>Reni qyra</t>
-  </si>
-  <si>
-    <t>Elsmeyti Indra</t>
-  </si>
-  <si>
-    <t>Renaldi Nurbani Hakim</t>
-  </si>
-  <si>
-    <t>dhanu rendra</t>
-  </si>
-  <si>
-    <t>ida marlina</t>
-  </si>
-  <si>
-    <t>Imam Samsudin (Isyamkaha)</t>
-  </si>
-  <si>
-    <t>Rifa Herma</t>
-  </si>
-  <si>
-    <t>Hesti Trisnawati</t>
-  </si>
-  <si>
-    <t>ANNIDA KONVEKSI</t>
-  </si>
-  <si>
-    <t>Ohhayu In</t>
-  </si>
-  <si>
-    <t>Nayla Syaffia azzahra</t>
-  </si>
-  <si>
-    <t>Binghai International</t>
-  </si>
-  <si>
-    <t>Galih I-one P</t>
-  </si>
-  <si>
-    <t>Arin Praja</t>
-  </si>
-  <si>
-    <t>yulie aniee</t>
-  </si>
-  <si>
-    <t>sufildzah atiqah</t>
-  </si>
-  <si>
-    <t>RaDam Purwanto</t>
-  </si>
-  <si>
-    <t>Heri Susanto</t>
-  </si>
-  <si>
-    <t>Joko Subekti</t>
-  </si>
-  <si>
-    <t>Croffle SEHATI</t>
-  </si>
-  <si>
-    <t>Habiburrochman Habiburrochman</t>
-  </si>
-  <si>
-    <t>Rosidah Rfq</t>
-  </si>
-  <si>
-    <t>Danis “Danis king” Maulana</t>
-  </si>
-  <si>
-    <t>Pur Wantex</t>
-  </si>
-  <si>
-    <t>NRAS</t>
   </si>
   <si>
     <t>Lumayan lah, harga ngepas juga</t>
@@ -235,15 +127,9 @@
     <t>05/13/2025 01:57:29</t>
   </si>
   <si>
-    <t>05/01/2025 03:14:40</t>
-  </si>
-  <si>
     <t>04/07/2025 08:36:34</t>
   </si>
   <si>
-    <t>02/17/2025 14:08:45</t>
-  </si>
-  <si>
     <t>02/16/2025 11:01:45</t>
   </si>
   <si>
@@ -265,15 +151,9 @@
     <t>12/07/2024 05:19:53</t>
   </si>
   <si>
-    <t>09/09/2024 16:06:06</t>
-  </si>
-  <si>
     <t>09/08/2024 07:18:42</t>
   </si>
   <si>
-    <t>08/28/2024 15:35:08</t>
-  </si>
-  <si>
     <t>08/24/2024 10:46:35</t>
   </si>
   <si>
@@ -283,24 +163,12 @@
     <t>06/09/2024 06:59:36</t>
   </si>
   <si>
-    <t>05/13/2024 21:47:28</t>
-  </si>
-  <si>
     <t>05/07/2024 11:06:05</t>
   </si>
   <si>
-    <t>05/01/2024 03:17:22</t>
-  </si>
-  <si>
     <t>04/12/2024 09:41:31</t>
   </si>
   <si>
-    <t>01/20/2024 11:04:47</t>
-  </si>
-  <si>
-    <t>01/13/2024 01:32:54</t>
-  </si>
-  <si>
     <t>12/23/2023 02:14:02</t>
   </si>
   <si>
@@ -310,28 +178,13 @@
     <t>07/15/2023 08:41:29</t>
   </si>
   <si>
-    <t>06/24/2023 06:15:50</t>
-  </si>
-  <si>
     <t>01/12/2023 02:39:55</t>
   </si>
   <si>
-    <t>05/31/2022 02:43:22</t>
-  </si>
-  <si>
-    <t>05/08/2022 05:38:04</t>
-  </si>
-  <si>
     <t>03/17/2021 23:36:02</t>
   </si>
   <si>
     <t>01/07/2020 09:42:18</t>
-  </si>
-  <si>
-    <t>10/19/2019 20:56:12</t>
-  </si>
-  <si>
-    <t>04/03/2019 08:49:38</t>
   </si>
 </sst>
 </file>
@@ -390,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -401,10 +254,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,20 +561,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK36"/>
+  <dimension ref="A1:AK23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="6" max="37" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
@@ -732,14 +582,11 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -772,558 +619,310 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="3">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="3">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>64</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>65</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>67</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>69</v>
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="3">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
+        <v>12</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>71</v>
+        <v>13</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>72</v>
+        <v>14</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>73</v>
+        <v>15</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="3">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>74</v>
+        <v>16</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>75</v>
+        <v>17</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="3">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>76</v>
+        <v>18</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="3">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="3">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="3">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21" s="3">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C22" s="3">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="3">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="3">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="3">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="3">
-        <v>5</v>
-      </c>
-      <c r="E25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="3">
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="3">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="3">
-        <v>5</v>
-      </c>
-      <c r="E29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="3">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="3">
-        <v>5</v>
-      </c>
-      <c r="E31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="3">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="3">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="3">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="3">
-        <v>5</v>
-      </c>
-      <c r="E35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="3">
-        <v>5</v>
-      </c>
-      <c r="E36" t="s">
-        <v>97</v>
+      <c r="C23" s="3">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
